--- a/atomica/library/service_databook.xlsx
+++ b/atomica/library/service_databook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE6C305-1525-4BF2-8C9E-A5629D575932}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C190B9C-030B-41DE-B635-C7EDAF999F47}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,13 @@
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,6 +36,12 @@
     <t>Full Name</t>
   </si>
   <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
     <t>Unaware of own need</t>
   </si>
   <si>
@@ -108,12 +121,6 @@
   </si>
   <si>
     <t>Background mortality rate</t>
-  </si>
-  <si>
-    <t>adults</t>
-  </si>
-  <si>
-    <t>Adults</t>
   </si>
 </sst>
 </file>
@@ -801,10 +808,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -830,13 +837,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -855,11 +862,11 @@
         <v>adults</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -870,13 +877,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -895,11 +902,11 @@
         <v>adults</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -910,13 +917,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -935,11 +942,11 @@
         <v>adults</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -950,13 +957,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
@@ -975,11 +982,11 @@
         <v>adults</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -990,13 +997,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -1015,11 +1022,11 @@
         <v>adults</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1030,13 +1037,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
@@ -1055,11 +1062,11 @@
         <v>adults</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1069,13 +1076,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
@@ -1094,11 +1101,11 @@
         <v>adults</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1108,13 +1115,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
@@ -1133,11 +1140,11 @@
         <v>adults</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1147,13 +1154,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
@@ -1172,11 +1179,11 @@
         <v>adults</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1186,13 +1193,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
@@ -1211,11 +1218,11 @@
         <v>adults</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1225,13 +1232,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
@@ -1250,11 +1257,11 @@
         <v>adults</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1265,13 +1272,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1">
@@ -1290,11 +1297,11 @@
         <v>adults</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1305,13 +1312,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
@@ -1330,11 +1337,11 @@
         <v>adults</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -1345,13 +1352,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1">
@@ -1370,11 +1377,11 @@
         <v>adults</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1385,13 +1392,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1">
@@ -1410,11 +1417,11 @@
         <v>adults</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E44" s="2">
         <v>10000</v>
@@ -1428,13 +1435,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1">
@@ -1453,11 +1460,11 @@
         <v>adults</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2">
@@ -1467,13 +1474,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1">
@@ -1492,11 +1499,11 @@
         <v>adults</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2">
@@ -1508,13 +1515,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1">
@@ -1533,11 +1540,11 @@
         <v>adults</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2">
@@ -1549,13 +1556,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1">
@@ -1574,11 +1581,11 @@
         <v>adults</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2">
@@ -1588,13 +1595,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1">
@@ -1613,11 +1620,11 @@
         <v>adults</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2">
@@ -1627,13 +1634,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1">
@@ -1652,13 +1659,13 @@
         <v>adults</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C62" s="2">
         <v>0.02</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -1834,13 +1841,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B53 B50 B47 B44 B29 B26 B23 B20 B17 B14 B11 B8 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2 B53 B50 B47 B44 B29 B26 B23 B20 B17 B14 B11 B8 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32 B41 B38 B35" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B32 B41 B38 B35" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"fraction"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56 B62 B59" xr:uid="{00000000-0002-0000-0100-000012000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B56 B62 B59" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"probability"</formula1>
     </dataValidation>
   </dataValidations>
